--- a/Data/charts.xlsx
+++ b/Data/charts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40056761\Documents\SET10108Coursework_2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\SET10108Coursework_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,8 +67,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,7 +148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -327,7 +354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -448,7 +474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -607,7 +632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -775,7 +799,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -896,7 +919,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1056,7 +1078,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2221,7 +2242,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2346,7 +2366,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2422,7 +2441,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2545,7 +2563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3705,7 +3722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3828,7 +3844,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3904,7 +3919,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4033,7 +4047,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4659,7 +4672,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4782,7 +4794,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4858,7 +4869,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4975,7 +4985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5602,7 +5611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5723,7 +5731,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5798,7 +5805,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5916,7 +5922,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6542,7 +6547,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6664,7 +6668,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6739,7 +6742,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6860,7 +6862,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7491,7 +7492,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7612,7 +7612,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7687,7 +7686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12505,6 +12503,41 @@
       </cdr:style>
     </cdr:cxnSp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91351</cdr:x>
+      <cdr:y>0.41766</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98607</cdr:x>
+      <cdr:y>0.62933</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6248400" y="1804307"/>
+          <a:ext cx="496349" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t># of PCs</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -12626,6 +12659,105 @@
         </a:fontRef>
       </cdr:style>
     </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91397</cdr:x>
+      <cdr:y>0.41525</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98654</cdr:x>
+      <cdr:y>0.62692</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6251575" y="1793875"/>
+          <a:ext cx="496349" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t># of PCs</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -15411,6 +15543,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -15446,6 +15595,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15600,7 +15766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I59" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G47" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="AI55" sqref="AI55"/>
     </sheetView>
   </sheetViews>

--- a/Data/charts.xlsx
+++ b/Data/charts.xlsx
@@ -21,7 +21,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -15766,8 +15766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G47" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AI55" sqref="AI55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
